--- a/src/Chapter-4使用python批量处理工作簿表/源.xlsx
+++ b/src/Chapter-4使用python批量处理工作簿表/源.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGF\Documents\GitHub\TianXiaPy\PyExcel\src\Chapter-4使用python批量处理工作簿表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1A78BF-2671-44D4-8FDF-8A6E2BA35CC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482F836B-25AE-44A0-A7A5-55EE7B0B9675}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C0F0838-175B-40BD-BAEE-18E5C51BD47C}"/>
   </bookViews>
@@ -25,13 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>红榜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黑榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD967AE2-D4CE-4D15-9D37-AB2908741092}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -412,8 +424,43 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>